--- a/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
+++ b/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC969DB-87F2-4CEB-BD94-0973529F8C46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C65DD5F-2DF4-4949-80BF-9834265A8540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="例1" sheetId="6" r:id="rId1"/>
@@ -5056,7 +5056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -6203,7 +6203,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6239,7 +6239,10 @@
       <c r="C3" s="11">
         <v>82</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12" t="str">
+        <f>IF(C3&gt;=90,"A",IF(C3&gt;=80,"B",IF(C3&gt;=70,"C",IF(C3&gt;=60,"D","E"))))</f>
+        <v>B</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
@@ -6251,7 +6254,10 @@
       <c r="C4" s="13">
         <v>90</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="str">
+        <f t="shared" ref="D4:D12" si="0">IF(C4&gt;=90,"A",IF(C4&gt;=80,"B",IF(C4&gt;=70,"C",IF(C4&gt;=60,"D","E"))))</f>
+        <v>A</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
@@ -6263,7 +6269,10 @@
       <c r="C5" s="11">
         <v>72</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
@@ -6275,7 +6284,10 @@
       <c r="C6" s="13">
         <v>43</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
@@ -6287,7 +6299,10 @@
       <c r="C7" s="13">
         <v>81</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
@@ -6299,7 +6314,10 @@
       <c r="C8" s="13">
         <v>69</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
@@ -6311,7 +6329,10 @@
       <c r="C9" s="13">
         <v>87</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
@@ -6323,7 +6344,10 @@
       <c r="C10" s="13">
         <v>56</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>E</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
@@ -6335,7 +6359,10 @@
       <c r="C11" s="13">
         <v>80</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
@@ -6347,7 +6374,10 @@
       <c r="C12" s="16">
         <v>93</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6355,7 +6385,8 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6363,7 +6394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
+++ b/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C65DD5F-2DF4-4949-80BF-9834265A8540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F757C-E00C-4844-82C8-EE3794D25CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6394,8 +6394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6711,6 +6711,7 @@
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="4">
+        <f>COUNTIF(C3:C12,"&gt;=60")/COUNT(C3:C12)</f>
         <v>0.8</v>
       </c>
       <c r="D16" s="32"/>

--- a/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
+++ b/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F757C-E00C-4844-82C8-EE3794D25CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39D96B9-1963-4C70-B89E-EA839AA3EB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="1965" windowWidth="18000" windowHeight="9375" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="例1" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="73">
   <si>
     <t>消费明细</t>
   </si>
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>部分内容参考如下：</t>
+  </si>
+  <si>
+    <t>辅导员签名:</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -527,7 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -621,6 +625,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6394,8 +6401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6675,7 +6682,9 @@
         <f>MAX(C3:C12)</f>
         <v>93</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="33" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
     </row>

--- a/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
+++ b/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39D96B9-1963-4C70-B89E-EA839AA3EB6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCCA032-43E8-4A74-8AAA-FF4B0D122954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="1965" windowWidth="18000" windowHeight="9375" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="例1" sheetId="6" r:id="rId1"/>
@@ -396,7 +396,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -524,6 +524,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -531,19 +648,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -609,9 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -621,13 +726,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +806,36 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3420,8 +3620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3432,318 +3632,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>20000</v>
       </c>
-      <c r="D3" s="25" t="str">
+      <c r="D3" s="22" t="str">
         <f>IF(C3&gt;10000,"达标","不达标")</f>
         <v>达标</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <f>IF(C3&gt;10000,C3*0.8,C3)</f>
         <v>16000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>15000</v>
       </c>
-      <c r="D4" s="25" t="str">
+      <c r="D4" s="22" t="str">
         <f t="shared" ref="D4:D17" si="0">IF(C4&gt;10000,"达标","不达标")</f>
         <v>达标</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <f t="shared" ref="E4:E17" si="1">IF(C4&gt;10000,C4*0.8,C4)</f>
         <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>6500</v>
       </c>
-      <c r="D5" s="25" t="str">
+      <c r="D5" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>8500</v>
       </c>
-      <c r="D6" s="25" t="str">
+      <c r="D6" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>8500</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>6000</v>
       </c>
-      <c r="D7" s="25" t="str">
+      <c r="D7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>12500</v>
       </c>
-      <c r="D8" s="25" t="str">
+      <c r="D8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>达标</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>5500</v>
       </c>
-      <c r="D9" s="25" t="str">
+      <c r="D9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>8500</v>
       </c>
-      <c r="D10" s="25" t="str">
+      <c r="D10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>8500</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>8000</v>
       </c>
-      <c r="D11" s="25" t="str">
+      <c r="D11" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>4500</v>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>11000</v>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="22" t="str">
         <f t="shared" si="0"/>
         <v>达标</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
         <v>8800</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="22">
         <v>5000</v>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>5000</v>
       </c>
-      <c r="D15" s="25" t="str">
+      <c r="D15" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="22">
         <v>10500</v>
       </c>
-      <c r="D16" s="25" t="str">
+      <c r="D16" s="22" t="str">
         <f t="shared" si="0"/>
         <v>达标</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>7500</v>
       </c>
-      <c r="D17" s="25" t="str">
+      <c r="D17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>不达标</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="9">
         <f t="shared" si="1"/>
         <v>7500</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3752,6 +3952,11 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C17">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3762,1296 +3967,1301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="6" customWidth="1"/>
-    <col min="3" max="8" width="5.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="6" customWidth="1"/>
-    <col min="10" max="11" width="5.375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="7.375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="17.25" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15" style="6" customWidth="1"/>
-    <col min="15" max="15" width="38.375" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="8.625" style="6"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
+    <col min="3" max="8" width="5.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
+    <col min="10" max="11" width="5.375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.25" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15" style="3" customWidth="1"/>
+    <col min="15" max="15" width="38.375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>82</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>78</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>65</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>94</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <v>70</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>92</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <v>91</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <f>SUM(D3:J3)</f>
         <v>572</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="8">
         <f>MIN(D3:J3)</f>
         <v>65</v>
       </c>
-      <c r="M3" s="11" t="str">
+      <c r="M3" s="8" t="str">
         <f>O3</f>
         <v>加油</v>
       </c>
-      <c r="N3" s="11" t="str">
+      <c r="N3" s="8" t="str">
         <f>IF(L3&gt;80,"优秀","有弱科")</f>
         <v>有弱科</v>
       </c>
-      <c r="O3" s="11" t="str">
+      <c r="O3" s="8" t="str">
         <f>IF(K3&gt;595,IF(L3&gt;80,"非常优秀","加油"),"加油")</f>
         <v>加油</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>90</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>75</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>98</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>82</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>87</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>69</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <v>86</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K25" si="0">SUM(D4:J4)</f>
         <v>587</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="8">
         <f t="shared" ref="L4:L25" si="1">MIN(D4:J4)</f>
         <v>69</v>
       </c>
-      <c r="M4" s="11" t="str">
+      <c r="M4" s="8" t="str">
         <f t="shared" ref="M4:M25" si="2">IF(K4&gt;595,"优秀","继续努力")</f>
         <v>继续努力</v>
       </c>
-      <c r="N4" s="11" t="str">
+      <c r="N4" s="8" t="str">
         <f t="shared" ref="N4:N25" si="3">IF(L4&gt;80,"优秀","有弱科")</f>
         <v>有弱科</v>
       </c>
-      <c r="O4" s="11" t="str">
+      <c r="O4" s="8" t="str">
         <f t="shared" ref="O4:O25" si="4">IF(K4&gt;595,IF(L4&gt;80,"非常优秀","加油"),"加油")</f>
         <v>加油</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>72</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>83</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>83</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <v>53</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>64</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>82</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="8">
         <v>49</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>486</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="8">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="M5" s="11" t="str">
+      <c r="M5" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N5" s="11" t="str">
+      <c r="N5" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O5" s="11" t="str">
+      <c r="O5" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>82</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>84</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>87</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <v>86</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>81</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>90</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>86</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="8">
         <f t="shared" si="0"/>
         <v>596</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="8">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="8" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
-      <c r="N6" s="11" t="str">
+      <c r="N6" s="8" t="str">
         <f t="shared" si="3"/>
         <v>优秀</v>
       </c>
-      <c r="O6" s="11" t="str">
+      <c r="O6" s="8" t="str">
         <f t="shared" si="4"/>
         <v>非常优秀</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>81</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>93</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>88</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <v>49</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>73</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>92</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>74</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="8">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N7" s="11" t="str">
+      <c r="N7" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O7" s="11" t="str">
+      <c r="O7" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>69</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>90</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>80</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <v>83</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>78</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <v>86</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <v>93</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="8">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N8" s="11" t="str">
+      <c r="N8" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O8" s="11" t="str">
+      <c r="O8" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>87</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>94</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>91</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <v>85</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <v>90</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <v>82</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <v>85</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="8">
         <f t="shared" si="0"/>
         <v>614</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="8">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="8" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
-      <c r="N9" s="11" t="str">
+      <c r="N9" s="8" t="str">
         <f t="shared" si="3"/>
         <v>优秀</v>
       </c>
-      <c r="O9" s="11" t="str">
+      <c r="O9" s="8" t="str">
         <f t="shared" si="4"/>
         <v>非常优秀</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>56</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>83</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>94</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>91</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <v>82</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="8">
         <v>84</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <v>72</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="8">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="M10" s="11" t="str">
+      <c r="M10" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N10" s="11" t="str">
+      <c r="N10" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O10" s="11" t="str">
+      <c r="O10" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>80</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>89</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>82</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>87</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>86</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>91</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>63</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="8">
         <f t="shared" si="0"/>
         <v>578</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="8">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="M11" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N11" s="11" t="str">
+      <c r="N11" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O11" s="11" t="str">
+      <c r="O11" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>93</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>75</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>76</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>88</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>95</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>71</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>74</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <f t="shared" si="0"/>
         <v>572</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="8">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N12" s="11" t="str">
+      <c r="N12" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O12" s="11" t="str">
+      <c r="O12" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>88</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>87</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>85</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>77</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>65</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="8">
         <v>83</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>80</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="8">
         <f t="shared" si="0"/>
         <v>565</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="8">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="M13" s="11" t="str">
+      <c r="M13" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N13" s="11" t="str">
+      <c r="N13" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O13" s="11" t="str">
+      <c r="O13" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>84</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>82</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>81</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>69</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>75</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="8">
         <v>72</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>95</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <f t="shared" si="0"/>
         <v>558</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="8">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="M14" s="11" t="str">
+      <c r="M14" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N14" s="11" t="str">
+      <c r="N14" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O14" s="11" t="str">
+      <c r="O14" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>62</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>81</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>70</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>90</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>60</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="8">
         <v>77</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>72</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="8">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="8">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="M15" s="11" t="str">
+      <c r="M15" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N15" s="11" t="str">
+      <c r="N15" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O15" s="11" t="str">
+      <c r="O15" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>81</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>87</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>92</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>75</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>90</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="8">
         <v>62</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <v>75</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="8">
         <f t="shared" si="0"/>
         <v>562</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="8">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="M16" s="11" t="str">
+      <c r="M16" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N16" s="11" t="str">
+      <c r="N16" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O16" s="11" t="str">
+      <c r="O16" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>67</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>62</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>52</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>80</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="8">
         <v>85</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="8">
         <v>48</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <v>71</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="8">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="8">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="M17" s="11" t="str">
+      <c r="M17" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N17" s="11" t="str">
+      <c r="N17" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O17" s="11" t="str">
+      <c r="O17" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>86</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>65</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>69</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>83</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <v>70</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="8">
         <v>60</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="8">
         <v>52</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="8">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="8">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="M18" s="11" t="str">
+      <c r="M18" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N18" s="11" t="str">
+      <c r="N18" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O18" s="11" t="str">
+      <c r="O18" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>95</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>83</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>92</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <v>87</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <v>80</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <v>92</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <v>78</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="8">
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="8">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="M19" s="11" t="str">
+      <c r="M19" s="8" t="str">
         <f t="shared" si="2"/>
         <v>优秀</v>
       </c>
-      <c r="N19" s="11" t="str">
+      <c r="N19" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O19" s="11" t="str">
+      <c r="O19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>80</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>90</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <v>94</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>90</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>65</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>61</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="8">
         <v>60</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="8">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="8">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="M20" s="11" t="str">
+      <c r="M20" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N20" s="11" t="str">
+      <c r="N20" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O20" s="11" t="str">
+      <c r="O20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>63</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>48</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>39</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>70</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>60</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>51</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="8">
         <v>56</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="8">
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="8">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="M21" s="11" t="str">
+      <c r="M21" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N21" s="11" t="str">
+      <c r="N21" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O21" s="11" t="str">
+      <c r="O21" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>80</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>75</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>65</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>60</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>80</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>70</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <v>79</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="8">
         <f t="shared" si="0"/>
         <v>509</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="8">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="M22" s="11" t="str">
+      <c r="M22" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N22" s="11" t="str">
+      <c r="N22" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O22" s="11" t="str">
+      <c r="O22" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>88</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <v>80</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <v>83</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="10">
         <v>87</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="10">
         <v>81</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="10">
         <v>90</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="10">
         <v>86</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="8">
         <f t="shared" si="0"/>
         <v>595</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="M23" s="11" t="str">
+      <c r="M23" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N23" s="11" t="str">
+      <c r="N23" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O23" s="11" t="str">
+      <c r="O23" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>68</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <v>78</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <v>65</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="10">
         <v>90</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="10">
         <v>90</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="10">
         <v>80</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="10">
         <v>80</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="8">
         <f t="shared" si="0"/>
         <v>551</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="8">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="M24" s="11" t="str">
+      <c r="M24" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N24" s="11" t="str">
+      <c r="N24" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O24" s="11" t="str">
+      <c r="O24" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>81</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <v>72</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <v>89</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="10">
         <v>76</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="10">
         <v>76</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="10">
         <v>68</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="10">
         <v>61</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="8">
         <f t="shared" si="0"/>
         <v>523</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="8">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="M25" s="11" t="str">
+      <c r="M25" s="8" t="str">
         <f t="shared" si="2"/>
         <v>继续努力</v>
       </c>
-      <c r="N25" s="11" t="str">
+      <c r="N25" s="8" t="str">
         <f t="shared" si="3"/>
         <v>有弱科</v>
       </c>
-      <c r="O25" s="11" t="str">
+      <c r="O25" s="8" t="str">
         <f t="shared" si="4"/>
         <v>加油</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:15" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="D3:L25">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -5069,1130 +5279,1130 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="6" customWidth="1"/>
-    <col min="3" max="8" width="5.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="28.625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="51" style="6" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="6" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="8.625" style="6"/>
+    <col min="1" max="1" width="5.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
+    <col min="3" max="8" width="5.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="51" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>82</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>78</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>65</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>94</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="8">
         <v>70</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>92</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="8">
         <v>91</v>
       </c>
-      <c r="K3" s="11" t="str">
+      <c r="K3" s="8" t="str">
         <f>IF(SUM(D3:J3)&gt;595,"优秀","")</f>
         <v/>
       </c>
-      <c r="L3" s="11" t="str">
+      <c r="L3" s="8" t="str">
         <f>IF(MIN(D3:J3)&gt;80,"优秀","")</f>
         <v/>
       </c>
-      <c r="M3" s="11" t="str">
+      <c r="M3" s="8" t="str">
         <f>IF(SUM(D3:J3)&gt;595,IF(MIN(D3:J3)&gt;80,"非常优秀",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>90</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>75</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>98</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>82</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>87</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>69</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="8">
         <v>86</v>
       </c>
-      <c r="K4" s="11" t="str">
+      <c r="K4" s="8" t="str">
         <f t="shared" ref="K4:K25" si="0">IF(SUM(D4:J4)&gt;595,"优秀","")</f>
         <v/>
       </c>
-      <c r="L4" s="11" t="str">
+      <c r="L4" s="8" t="str">
         <f t="shared" ref="L4:L25" si="1">IF(MIN(D4:J4)&gt;80,"优秀","")</f>
         <v/>
       </c>
-      <c r="M4" s="11" t="str">
+      <c r="M4" s="8" t="str">
         <f t="shared" ref="M4:M25" si="2">IF(SUM(D4:J4)&gt;595,IF(MIN(D4:J4)&gt;80,"非常优秀",""),"")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>72</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>83</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>83</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <v>53</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>64</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>82</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="8">
         <v>49</v>
       </c>
-      <c r="K5" s="11" t="str">
+      <c r="K5" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L5" s="11" t="str">
+      <c r="L5" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M5" s="11" t="str">
+      <c r="M5" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>82</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>84</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>87</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <v>86</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>81</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>90</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="8">
         <v>86</v>
       </c>
-      <c r="K6" s="11" t="str">
+      <c r="K6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>优秀</v>
       </c>
-      <c r="L6" s="11" t="str">
+      <c r="L6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>优秀</v>
       </c>
-      <c r="M6" s="11" t="str">
+      <c r="M6" s="8" t="str">
         <f t="shared" si="2"/>
         <v>非常优秀</v>
       </c>
-      <c r="O6" s="21" t="s">
+      <c r="O6" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>81</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>93</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>88</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <v>49</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <v>73</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>92</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="8">
         <v>74</v>
       </c>
-      <c r="K7" s="11" t="str">
+      <c r="K7" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L7" s="11" t="str">
+      <c r="L7" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="11" t="str">
+      <c r="M7" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>69</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>90</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>80</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <v>83</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>78</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <v>86</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="8">
         <v>93</v>
       </c>
-      <c r="K8" s="11" t="str">
+      <c r="K8" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L8" s="11" t="str">
+      <c r="L8" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M8" s="11" t="str">
+      <c r="M8" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>87</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>94</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>91</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <v>85</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="8">
         <v>90</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <v>82</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="8">
         <v>85</v>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>优秀</v>
       </c>
-      <c r="L9" s="11" t="str">
+      <c r="L9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>优秀</v>
       </c>
-      <c r="M9" s="11" t="str">
+      <c r="M9" s="8" t="str">
         <f t="shared" si="2"/>
         <v>非常优秀</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>56</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>83</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>94</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>91</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="8">
         <v>82</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="8">
         <v>84</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="8">
         <v>72</v>
       </c>
-      <c r="K10" s="11" t="str">
+      <c r="K10" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L10" s="11" t="str">
+      <c r="L10" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M10" s="11" t="str">
+      <c r="M10" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>80</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>89</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>82</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>87</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="8">
         <v>86</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>91</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="8">
         <v>63</v>
       </c>
-      <c r="K11" s="11" t="str">
+      <c r="K11" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L11" s="11" t="str">
+      <c r="L11" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M11" s="11" t="str">
+      <c r="M11" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>93</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>75</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>76</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>88</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="8">
         <v>95</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>71</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="8">
         <v>74</v>
       </c>
-      <c r="K12" s="11" t="str">
+      <c r="K12" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L12" s="11" t="str">
+      <c r="L12" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M12" s="11" t="str">
+      <c r="M12" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>88</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>87</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>85</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>77</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="8">
         <v>65</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="8">
         <v>83</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="8">
         <v>80</v>
       </c>
-      <c r="K13" s="11" t="str">
+      <c r="K13" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L13" s="11" t="str">
+      <c r="L13" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M13" s="11" t="str">
+      <c r="M13" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>84</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>82</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>81</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>69</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="8">
         <v>75</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="8">
         <v>72</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="8">
         <v>95</v>
       </c>
-      <c r="K14" s="11" t="str">
+      <c r="K14" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L14" s="11" t="str">
+      <c r="L14" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M14" s="11" t="str">
+      <c r="M14" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>62</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>81</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>70</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>90</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="8">
         <v>60</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="8">
         <v>77</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="8">
         <v>72</v>
       </c>
-      <c r="K15" s="11" t="str">
+      <c r="K15" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L15" s="11" t="str">
+      <c r="L15" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M15" s="11" t="str">
+      <c r="M15" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>81</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>87</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>92</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>75</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="8">
         <v>90</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="8">
         <v>62</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="8">
         <v>75</v>
       </c>
-      <c r="K16" s="11" t="str">
+      <c r="K16" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L16" s="11" t="str">
+      <c r="L16" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M16" s="11" t="str">
+      <c r="M16" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>67</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>62</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>52</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>80</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="8">
         <v>85</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="8">
         <v>48</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <v>71</v>
       </c>
-      <c r="K17" s="11" t="str">
+      <c r="K17" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L17" s="11" t="str">
+      <c r="L17" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M17" s="11" t="str">
+      <c r="M17" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>86</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>65</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <v>69</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>83</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="8">
         <v>70</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="8">
         <v>60</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="8">
         <v>52</v>
       </c>
-      <c r="K18" s="11" t="str">
+      <c r="K18" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L18" s="11" t="str">
+      <c r="L18" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M18" s="11" t="str">
+      <c r="M18" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>95</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>83</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="8">
         <v>92</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <v>87</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="8">
         <v>80</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <v>92</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="8">
         <v>78</v>
       </c>
-      <c r="K19" s="11" t="str">
+      <c r="K19" s="8" t="str">
         <f t="shared" si="0"/>
         <v>优秀</v>
       </c>
-      <c r="L19" s="11" t="str">
+      <c r="L19" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M19" s="11" t="str">
+      <c r="M19" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>80</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>90</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="8">
         <v>94</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>90</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="8">
         <v>65</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>61</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="8">
         <v>60</v>
       </c>
-      <c r="K20" s="11" t="str">
+      <c r="K20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L20" s="11" t="str">
+      <c r="L20" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M20" s="11" t="str">
+      <c r="M20" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>63</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>48</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="8">
         <v>39</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="8">
         <v>70</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="8">
         <v>60</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>51</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="8">
         <v>56</v>
       </c>
-      <c r="K21" s="11" t="str">
+      <c r="K21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L21" s="11" t="str">
+      <c r="L21" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M21" s="11" t="str">
+      <c r="M21" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>80</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>75</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>65</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="8">
         <v>60</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="8">
         <v>80</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>70</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="8">
         <v>79</v>
       </c>
-      <c r="K22" s="11" t="str">
+      <c r="K22" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L22" s="11" t="str">
+      <c r="L22" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M22" s="11" t="str">
+      <c r="M22" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>88</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <v>80</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <v>83</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="10">
         <v>87</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="10">
         <v>81</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="10">
         <v>90</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="10">
         <v>86</v>
       </c>
-      <c r="K23" s="11" t="str">
+      <c r="K23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L23" s="11" t="str">
+      <c r="L23" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M23" s="11" t="str">
+      <c r="M23" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>68</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <v>78</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="10">
         <v>65</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="10">
         <v>90</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="10">
         <v>90</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="10">
         <v>80</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="10">
         <v>80</v>
       </c>
-      <c r="K24" s="11" t="str">
+      <c r="K24" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L24" s="11" t="str">
+      <c r="L24" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M24" s="11" t="str">
+      <c r="M24" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>81</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <v>72</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="10">
         <v>89</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="10">
         <v>76</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="10">
         <v>76</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="10">
         <v>68</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="10">
         <v>61</v>
       </c>
-      <c r="K25" s="11" t="str">
+      <c r="K25" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L25" s="11" t="str">
+      <c r="L25" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M25" s="11" t="str">
+      <c r="M25" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
+      <c r="A26" s="15"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6210,178 +6420,178 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>82</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="9" t="str">
         <f>IF(C3&gt;=90,"A",IF(C3&gt;=80,"B",IF(C3&gt;=70,"C",IF(C3&gt;=60,"D","E"))))</f>
         <v>B</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>90</v>
       </c>
-      <c r="D4" s="12" t="str">
+      <c r="D4" s="9" t="str">
         <f t="shared" ref="D4:D12" si="0">IF(C4&gt;=90,"A",IF(C4&gt;=80,"B",IF(C4&gt;=70,"C",IF(C4&gt;=60,"D","E"))))</f>
         <v>A</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>72</v>
       </c>
-      <c r="D5" s="12" t="str">
+      <c r="D5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>43</v>
       </c>
-      <c r="D6" s="12" t="str">
+      <c r="D6" s="9" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>81</v>
       </c>
-      <c r="D7" s="12" t="str">
+      <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>69</v>
       </c>
-      <c r="D8" s="12" t="str">
+      <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>87</v>
       </c>
-      <c r="D9" s="12" t="str">
+      <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>56</v>
       </c>
-      <c r="D10" s="12" t="str">
+      <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>80</v>
       </c>
-      <c r="D11" s="12" t="str">
+      <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="13">
         <v>93</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>A</v>
       </c>
@@ -6391,6 +6601,11 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6401,8 +6616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6414,321 +6629,321 @@
     <col min="6" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="50" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>82</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="19" t="str">
         <f>IF(C3&gt;=60,"及格","不及格")</f>
         <v>及格</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="5" t="str">
         <f>IF(C3&gt;85,"优秀","")</f>
         <v/>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <f>RANK(C3:C12,$C$3:$C$12,0)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="47">
         <v>90</v>
       </c>
-      <c r="D4" s="27" t="str">
+      <c r="D4" s="7" t="str">
         <f t="shared" ref="D4:D12" si="0">IF(C4&gt;=60,"及格","不及格")</f>
         <v>及格</v>
       </c>
-      <c r="E4" s="27" t="str">
+      <c r="E4" s="8" t="str">
         <f t="shared" ref="E4:E12" si="1">IF(C4&gt;85,"优秀","")</f>
         <v>优秀</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="9">
         <f t="shared" ref="F4:F12" si="2">RANK(C4:C13,$C$3:$C$12,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>72</v>
       </c>
-      <c r="D5" s="27" t="str">
+      <c r="D5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>及格</v>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="E5" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="47">
         <v>43</v>
       </c>
-      <c r="D6" s="27" t="str">
+      <c r="D6" s="7" t="str">
         <f t="shared" si="0"/>
         <v>不及格</v>
       </c>
-      <c r="E6" s="27" t="str">
+      <c r="E6" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="9">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="47">
         <v>81</v>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="7" t="str">
         <f t="shared" si="0"/>
         <v>及格</v>
       </c>
-      <c r="E7" s="27" t="str">
+      <c r="E7" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="9">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="47">
         <v>69</v>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>及格</v>
       </c>
-      <c r="E8" s="27" t="str">
+      <c r="E8" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="9">
         <f>RANK(C8:C17,$C$3:$C$12,0)</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="47">
         <v>87</v>
       </c>
-      <c r="D9" s="27" t="str">
+      <c r="D9" s="7" t="str">
         <f t="shared" si="0"/>
         <v>及格</v>
       </c>
-      <c r="E9" s="27" t="str">
+      <c r="E9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>优秀</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="9">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="47">
         <v>56</v>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="7" t="str">
         <f t="shared" si="0"/>
         <v>不及格</v>
       </c>
-      <c r="E10" s="27" t="str">
+      <c r="E10" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="9">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="47">
         <v>80</v>
       </c>
-      <c r="D11" s="27" t="str">
+      <c r="D11" s="7" t="str">
         <f t="shared" si="0"/>
         <v>及格</v>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="9">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="48">
         <v>93</v>
       </c>
-      <c r="D12" s="27" t="str">
+      <c r="D12" s="11" t="str">
         <f t="shared" si="0"/>
         <v>及格</v>
       </c>
-      <c r="E12" s="27" t="str">
+      <c r="E12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>优秀</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="51">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="3">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46">
         <f>MAX(C3:C12)</f>
         <v>93</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="35">
         <f>MIN(C3:C12)</f>
         <v>43</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="3">
+      <c r="B15" s="28"/>
+      <c r="C15" s="35">
         <f>AVERAGE(C3:C12)</f>
         <v>75.3</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D15" s="40"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="4">
+      <c r="B16" s="32"/>
+      <c r="C16" s="36">
         <f>COUNTIF(C3:C12,"&gt;=60")/COUNT(C3:C12)</f>
         <v>0.8</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6742,6 +6957,11 @@
     <mergeCell ref="D13:F16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="C3:C12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
+++ b/大学信息技术/项目3/实训2/1-if函数的复习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\demo\大学信息技术\项目3\实训2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCCA032-43E8-4A74-8AAA-FF4B0D122954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90691A2-8357-44CF-BCE5-8C7804C4C166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,70 +717,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -801,12 +747,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -826,13 +861,6 @@
         <b/>
         <i val="0"/>
         <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -3620,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3632,13 +3660,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
@@ -3953,7 +3981,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="C3:C17">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>10000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5258,7 +5286,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D3:L25">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6426,11 +6454,11 @@
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -6602,7 +6630,7 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6616,8 +6644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -6630,31 +6658,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="32" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6688,7 +6716,7 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="29">
         <v>90</v>
       </c>
       <c r="D4" s="7" t="str">
@@ -6734,7 +6762,7 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="29">
         <v>43</v>
       </c>
       <c r="D6" s="7" t="str">
@@ -6757,7 +6785,7 @@
       <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="29">
         <v>81</v>
       </c>
       <c r="D7" s="7" t="str">
@@ -6780,7 +6808,7 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="29">
         <v>69</v>
       </c>
       <c r="D8" s="7" t="str">
@@ -6803,7 +6831,7 @@
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="29">
         <v>87</v>
       </c>
       <c r="D9" s="7" t="str">
@@ -6826,7 +6854,7 @@
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="29">
         <v>56</v>
       </c>
       <c r="D10" s="7" t="str">
@@ -6849,7 +6877,7 @@
       <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="29">
         <v>80</v>
       </c>
       <c r="D11" s="7" t="str">
@@ -6872,7 +6900,7 @@
       <c r="B12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="30">
         <v>93</v>
       </c>
       <c r="D12" s="11" t="str">
@@ -6883,64 +6911,64 @@
         <f t="shared" si="1"/>
         <v>优秀</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46">
+      <c r="B13" s="38"/>
+      <c r="C13" s="28">
         <f>MAX(C3:C12)</f>
         <v>93</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="35">
+      <c r="B14" s="40"/>
+      <c r="C14" s="24">
         <f>MIN(C3:C12)</f>
         <v>43</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="35">
+      <c r="B15" s="40"/>
+      <c r="C15" s="24">
         <f>AVERAGE(C3:C12)</f>
         <v>75.3</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="36">
+      <c r="B16" s="42"/>
+      <c r="C16" s="25">
         <f>COUNTIF(C3:C12,"&gt;=60")/COUNT(C3:C12)</f>
         <v>0.8</v>
       </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="34"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
@@ -6958,9 +6986,10 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>60</formula>
     </cfRule>
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
